--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.26034887138647</v>
+        <v>95.07520091181604</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.7650648767369</v>
+        <v>130.0860843093294</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.72082008852828</v>
+        <v>117.6708509998476</v>
       </c>
       <c r="AD2" t="n">
-        <v>69260.34887138646</v>
+        <v>95075.20091181603</v>
       </c>
       <c r="AE2" t="n">
-        <v>94765.0648767369</v>
+        <v>130086.0843093294</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.822355635618296e-06</v>
+        <v>6.952218512577948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.302083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85720.82008852829</v>
+        <v>117670.8509998476</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.24265978165536</v>
+        <v>92.40967910064356</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.00437365000786</v>
+        <v>126.4389997727622</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.22360535782292</v>
+        <v>114.3718390927338</v>
       </c>
       <c r="AD2" t="n">
-        <v>67242.65978165537</v>
+        <v>92409.67910064355</v>
       </c>
       <c r="AE2" t="n">
-        <v>92004.37365000787</v>
+        <v>126438.9997727622</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.092996306710146e-06</v>
+        <v>7.455954999835655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>83223.60535782292</v>
+        <v>114371.8390927338</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.55328174587467</v>
+        <v>85.94048880316554</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.58815974069789</v>
+        <v>117.5875682072238</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.41974589880269</v>
+        <v>106.3651757327454</v>
       </c>
       <c r="AD2" t="n">
-        <v>62553.28174587467</v>
+        <v>85940.48880316554</v>
       </c>
       <c r="AE2" t="n">
-        <v>85588.15974069788</v>
+        <v>117587.5682072238</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.383398429356582e-06</v>
+        <v>8.328781858775784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77419.74589880269</v>
+        <v>106365.1757327454</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.07145247615676</v>
+        <v>88.05059766536961</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.66538791083444</v>
+        <v>120.474712243923</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.29872632779011</v>
+        <v>108.976774794715</v>
       </c>
       <c r="AD2" t="n">
-        <v>64071.45247615676</v>
+        <v>88050.59766536961</v>
       </c>
       <c r="AE2" t="n">
-        <v>87665.38791083444</v>
+        <v>120474.712243923</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.414257308810575e-06</v>
+        <v>8.182534414384518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>79298.72632779011</v>
+        <v>108976.774794715</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.21757776995666</v>
+        <v>91.89410218993088</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.70654356883286</v>
+        <v>125.7335646978775</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.66788397211545</v>
+        <v>113.7337297513116</v>
       </c>
       <c r="AD2" t="n">
-        <v>69217.57776995667</v>
+        <v>91894.10218993088</v>
       </c>
       <c r="AE2" t="n">
-        <v>94706.54356883286</v>
+        <v>125733.5646978775</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196040556558773e-06</v>
+        <v>8.212279696973866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.018229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>85667.88397211545</v>
+        <v>113733.7297513116</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.81420305744805</v>
+        <v>93.15149966874812</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.78638437465678</v>
+        <v>127.4539914008561</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.93098207647057</v>
+        <v>115.2899613443925</v>
       </c>
       <c r="AD2" t="n">
-        <v>67814.20305744806</v>
+        <v>93151.49966874812</v>
       </c>
       <c r="AE2" t="n">
-        <v>92786.38437465677</v>
+        <v>127453.9914008561</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.009676880370955e-06</v>
+        <v>7.303539235754632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>83930.98207647057</v>
+        <v>115289.9613443925</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.81106045407175</v>
+        <v>98.55250837824654</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.15032864296114</v>
+        <v>134.8438897928757</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.16475341811619</v>
+        <v>121.9745782056676</v>
       </c>
       <c r="AD2" t="n">
-        <v>68811.06045407175</v>
+        <v>98552.50837824654</v>
       </c>
       <c r="AE2" t="n">
-        <v>94150.32864296115</v>
+        <v>134843.8897928757</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.961793995691256e-06</v>
+        <v>7.949959494985554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.513020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85164.75341811619</v>
+        <v>121974.5782056676</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.7492463818422</v>
+        <v>90.36363350174001</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.96101955163523</v>
+        <v>123.6395099191825</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.37526610673284</v>
+        <v>111.8395286216703</v>
       </c>
       <c r="AD2" t="n">
-        <v>65749.2463818422</v>
+        <v>90363.63350174001</v>
       </c>
       <c r="AE2" t="n">
-        <v>89961.01955163523</v>
+        <v>123639.5099191825</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.255997158188828e-06</v>
+        <v>7.804331624468521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>81375.26610673284</v>
+        <v>111839.5286216703</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.71702117496434</v>
+        <v>91.70728819388354</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.2851717187949</v>
+        <v>125.4779575468338</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.57304304951845</v>
+        <v>113.5025173880165</v>
       </c>
       <c r="AD2" t="n">
-        <v>66717.02117496435</v>
+        <v>91707.28819388355</v>
       </c>
       <c r="AE2" t="n">
-        <v>91285.1717187949</v>
+        <v>125477.9575468338</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.168331311473532e-06</v>
+        <v>7.599733906670641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82573.04304951844</v>
+        <v>113502.5173880165</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.28220030518409</v>
+        <v>93.94293458415072</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.42671885559031</v>
+        <v>128.5368675677536</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.51020393325909</v>
+        <v>116.2694893297479</v>
       </c>
       <c r="AD2" t="n">
-        <v>68282.20030518409</v>
+        <v>93942.93458415072</v>
       </c>
       <c r="AE2" t="n">
-        <v>93426.71885559031</v>
+        <v>128536.8675677536</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.979487349882935e-06</v>
+        <v>7.204185395098996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>84510.20393325909</v>
+        <v>116269.4893297479</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.6281763798947</v>
+        <v>88.8303527334706</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.42712211685354</v>
+        <v>121.5416075284639</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.98776169028764</v>
+        <v>109.9418470906967</v>
       </c>
       <c r="AD2" t="n">
-        <v>64628.1763798947</v>
+        <v>88830.3527334706</v>
       </c>
       <c r="AE2" t="n">
-        <v>88427.12211685354</v>
+        <v>121541.6075284639</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.375029418174666e-06</v>
+        <v>8.071598977257382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>79987.76169028765</v>
+        <v>109941.8470906967</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.00393191900201</v>
+        <v>86.49325654922242</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.20475918885292</v>
+        <v>118.3438894237703</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.97749796102875</v>
+        <v>107.0493147138885</v>
       </c>
       <c r="AD2" t="n">
-        <v>63003.93191900201</v>
+        <v>86493.25654922242</v>
       </c>
       <c r="AE2" t="n">
-        <v>86204.75918885291</v>
+        <v>118343.8894237703</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.435139729780008e-06</v>
+        <v>8.336127890267994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77977.49796102874</v>
+        <v>107049.3147138885</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.08971155858222</v>
+        <v>92.67741106437582</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.9538825591714</v>
+        <v>126.8053224570411</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.84600324126725</v>
+        <v>114.7032004541624</v>
       </c>
       <c r="AD2" t="n">
-        <v>62089.71155858222</v>
+        <v>92677.41106437582</v>
       </c>
       <c r="AE2" t="n">
-        <v>84953.8825591714</v>
+        <v>126805.3224570411</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.300370182039795e-06</v>
+        <v>8.281723857697785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.731770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76846.00324126726</v>
+        <v>114703.2004541624</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.228151432376</v>
+        <v>105.480516923606</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.2987197384319</v>
+        <v>144.3230967267977</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.34459631079481</v>
+        <v>130.5491029339696</v>
       </c>
       <c r="AD2" t="n">
-        <v>76228.15143237599</v>
+        <v>105480.516923606</v>
       </c>
       <c r="AE2" t="n">
-        <v>104298.7197384319</v>
+        <v>144323.0967267977</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.50895758766578e-06</v>
+        <v>7.348140565759345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.502604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>94344.59631079482</v>
+        <v>130549.1029339696</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.2671815843933</v>
+        <v>91.07351715603598</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.66968134545375</v>
+        <v>124.6108040528463</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.01629421356263</v>
+        <v>112.7181238064373</v>
       </c>
       <c r="AD2" t="n">
-        <v>66267.1815843933</v>
+        <v>91073.51715603597</v>
       </c>
       <c r="AE2" t="n">
-        <v>90669.68134545375</v>
+        <v>124610.8040528463</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.201831043570943e-06</v>
+        <v>7.685085333420592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>82016.29421356264</v>
+        <v>112718.1238064373</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.31781451809685</v>
+        <v>93.81951169419588</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.47544779288572</v>
+        <v>128.3679949246838</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.55428224917053</v>
+        <v>116.1167336547185</v>
       </c>
       <c r="AD2" t="n">
-        <v>68317.81451809686</v>
+        <v>93819.51169419588</v>
       </c>
       <c r="AE2" t="n">
-        <v>93475.44779288572</v>
+        <v>128367.9949246839</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.940173704385702e-06</v>
+        <v>7.173967185333141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>84554.28224917053</v>
+        <v>116116.7336547185</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.59468851544621</v>
+        <v>134.2033314824406</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.3238936992487</v>
+        <v>183.6229187673221</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.3631571778149</v>
+        <v>166.0982051166055</v>
       </c>
       <c r="AD2" t="n">
-        <v>91594.68851544621</v>
+        <v>134203.3314824406</v>
       </c>
       <c r="AE2" t="n">
-        <v>125323.8936992487</v>
+        <v>183622.9187673221</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.692246460945228e-06</v>
+        <v>6.154754869889467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113363.1571778149</v>
+        <v>166098.2051166055</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.61053440194731</v>
+        <v>87.35290598337404</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.03473946743105</v>
+        <v>119.5200997046324</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.72826608670429</v>
+        <v>108.1132691363669</v>
       </c>
       <c r="AD2" t="n">
-        <v>63610.53440194731</v>
+        <v>87352.90598337405</v>
       </c>
       <c r="AE2" t="n">
-        <v>87034.73946743105</v>
+        <v>119520.0997046324</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.407964983981242e-06</v>
+        <v>8.230417719160911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.2890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>78728.2660867043</v>
+        <v>108113.2691363669</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.22909732535972</v>
+        <v>89.64250943843237</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.24932866519941</v>
+        <v>122.6528361620172</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.73149799963379</v>
+        <v>110.9470216230831</v>
       </c>
       <c r="AD2" t="n">
-        <v>65229.09732535971</v>
+        <v>89642.50943843237</v>
       </c>
       <c r="AE2" t="n">
-        <v>89249.32866519941</v>
+        <v>122652.8361620171</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.302126395587667e-06</v>
+        <v>7.915601197025715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>80731.49799963379</v>
+        <v>110947.0216230831</v>
       </c>
     </row>
   </sheetData>
